--- a/scanned_students.xlsx
+++ b/scanned_students.xlsx
@@ -397,104 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Barcode</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>REGISTERNUMBER</v>
-      </c>
-      <c r="E1" t="str">
-        <v>DEPT</v>
-      </c>
-      <c r="F1" t="str">
-        <v>PROGRAMME</v>
-      </c>
-      <c r="G1" t="str">
-        <v>SEC</v>
-      </c>
-      <c r="H1" t="str">
-        <v>YEAR</v>
-      </c>
-      <c r="I1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Time</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>22ECEBE142</v>
-      </c>
-      <c r="C2" t="str">
-        <v>RAM BALAJE T</v>
-      </c>
-      <c r="D2" t="str">
-        <v>61781922103103</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ECE</v>
-      </c>
-      <c r="F2" t="str">
-        <v>ECE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>C</v>
-      </c>
-      <c r="H2" t="str">
-        <v>III</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>6/5/2025, 9:41:38 pm</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>22ECEBE183</v>
-      </c>
-      <c r="C3" t="str">
-        <v>SATHISHKUMAR S</v>
-      </c>
-      <c r="D3" t="str">
-        <v>61781922103121</v>
-      </c>
-      <c r="E3" t="str">
-        <v>ECE</v>
-      </c>
-      <c r="F3" t="str">
-        <v>ECE</v>
-      </c>
-      <c r="G3" t="str">
-        <v>D</v>
-      </c>
-      <c r="H3" t="str">
-        <v>III</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>6/5/2025, 9:41:59 pm</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scanned_students.xlsx
+++ b/scanned_students.xlsx
@@ -397,13 +397,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Barcode</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>REGISTERNUMBER</v>
+      </c>
+      <c r="E1" t="str">
+        <v>DEPT</v>
+      </c>
+      <c r="F1" t="str">
+        <v>PROGRAMME</v>
+      </c>
+      <c r="G1" t="str">
+        <v>SEC</v>
+      </c>
+      <c r="H1" t="str">
+        <v>YEAR</v>
+      </c>
+      <c r="I1" t="str">
+        <v>__v</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Time</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="str">
+        <v>22ECEBE142</v>
+      </c>
+      <c r="C2" t="str">
+        <v>RAM BALAJE T</v>
+      </c>
+      <c r="D2" t="str">
+        <v>61781922103103</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>C</v>
+      </c>
+      <c r="H2" t="str">
+        <v>III</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <v>7/5/2025, 12:16:32 pm</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scanned_students.xlsx
+++ b/scanned_students.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,12 +460,41 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>7/5/2025, 12:16:32 pm</v>
+        <v>7/5/2025, 12:20:20 pm</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>22ECEBE175</v>
+      </c>
+      <c r="C3" t="str">
+        <v>NAVEEN V</v>
+      </c>
+      <c r="D3" t="str">
+        <v>61781922103079</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F3" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="G3" t="str">
+        <v>C</v>
+      </c>
+      <c r="H3" t="str">
+        <v>III</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>7/5/2025, 12:20:29 pm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>